--- a/biology/Zoologie/Beaumarquet_aurore/Beaumarquet_aurore.xlsx
+++ b/biology/Zoologie/Beaumarquet_aurore/Beaumarquet_aurore.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pytilia phoenicoptera
 Le Beaumarquet aurore (Pytilia phoenicoptera) est une espèce de passereaux appartenant à la famille des Estrildidae.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau mesure environ 12 cm de longueur. Il présente un dimorphisme sexuel.
 Le mâle a la tête gris clair striée de gris foncé, le dos gris cendré, les ailes et le croupion rouge cramoisi, la queue tirant sur le noir et le ventre gris barré de blanc.
@@ -546,7 +560,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Afrique.
 </t>
@@ -577,7 +593,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce fréquente les milieux avec des hautes herbes et des buissons, souvent à proximité des villages.
 </t>
@@ -608,7 +626,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce consomme des graines et des insectes.
 </t>
@@ -639,7 +659,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Cet oiseau est représenté par trois sous-espèces :
 phoenicoptera ;
